--- a/app/src/main/assets/quiz_level4.xlsx
+++ b/app/src/main/assets/quiz_level4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\MZ_FocusNews\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7088E46-8978-4816-B882-B122106088E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D97F5E4-ADEF-4C64-9BE8-EB578B885D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19020" yWindow="1290" windowWidth="17700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현대의 대기 환경문제 중 하나인 오존층 파괴를 대처하기 위해 1989년에 발효된 오존층 파괴물질의 규제에 관한 이 국제협약은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몬트리올 의정서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -85,18 +81,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유엔난민기구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>국제통화기금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세계보건기구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>'회자되다'에서 '회'는 무슨 뜻일까요?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -117,10 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유토피아의 반대어로, 가장 부정적인 암흑세계의 픽션을 그려냄으로써 현실을 날카롭게 비판하는 사상을 가리키는 용어는 무엇일까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>디스토피아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,10 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>'청포도', '광야', '절정'을 지은 작가. 일제강점기에 활동한 시인으로 식민지 현실에서의 슬픔과 민족정신을 작품을 통해 표현했던 작가 이름은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이육사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>'작업 현장에서 일하는 노동자'를 의미하는 시사용어로, '샐러리맨이나 사무직 노동자'를 뜻하는 화이트칼라와 대응되어 표현되는 이 용어는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>블루칼라</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,10 +293,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>가격이 오르는데도 불구하고 일부 계층의 과시욕이나 허영심으로 수요가 증가하는 효과로, 상류층 소비자들의 소비 형태를 나타내는 이 단어는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>베블렌 효과</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,10 +309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다음 초기 자료에 대하여 삽입 정렬(Insertion Sort)을 이용하여 오름차순 정렬할 경우 1회전 후의 결과는? &lt; 8, 3, 4, 9, 7 &gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3, 8, 4, 9, 7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,10 +325,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>운영체제의 운영 방법 중 동시에 프로그램을 수행할 수 있는 프로세서를 2개 이상 두고, 각각 그 업무를 분담하여 처리할 수 있는 방법은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Muti-processing System</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -477,10 +441,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>황제의 승인을 받지 않은 을사조약의 부당함을 알리고 이토 히로부미와 이완용 등 을사오적 친일파들을 규탄한 '시일야방성대곡'을 게재했던 신문사는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>황성신문</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -537,10 +497,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>외세의 침입으로부터 나라를 지키기 위해 근대적인 무기를 가지고 새로운 훈련을 받는 군대를 1881년 조직하였다. 이 군대의 이름은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>별기군</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -614,6 +570,50 @@
   </si>
   <si>
     <t>관수관급제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제정책위원회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융시장위원회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대의 대기 환경문제 중 오존층 파괴를 대처하기 위해 1989년에 발효된 오존층 파괴물질의 규제에 관한 이 국제협약은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유토피아의 반대어로, 가장 부정적인 암흑세계의 픽션을 그려냄으로써 현실을 비판하는 사상을 가리키는 용어는 무엇일까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'청포도', '광야', '절정'을 지은 작가. 일제강점기에 활동한 시인으로 식민지의 슬픔과 민족정신을 작품을 통해 표현했던 작가는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'현장에서 일하는 노동자'를 의미하는 시사용어로, '샐러리맨이나 사무직 노동자'를 뜻하는 화이트칼라와 대응되는 이 표현은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격이 오르는데도 일부 계층의 과시욕으로 수요가 증가하는 효과로, 상류층 소비자들의 소비 형태를 나타내는 이 단어는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 초기 자료에 대하여 삽입 정렬을 이용하여 오름차순 정렬할 경우 1회전 후의 결과는? &lt; 8, 3, 4, 9, 7 &gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동시에 프로그램을 수행할 수 있는 프로세서를 2개 이상 두고, 각각 그 업무를 분담하여 처리할 수 있는 운영체제 운영 방법은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 승인을 받지 않은 을사조약의 부당함을 알리고 을사오적 친일파들을 규탄한 '시일야방성대곡'을 게재했던 신문사는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외세의 침입으로부터 나라를 지키기 위해 근대적인 무기를 가지고 새로운 훈련을 받는 군대를 1881년 조직한 군대의 이름은?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1145,13 +1145,13 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,22 +1205,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1228,22 +1228,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1251,22 +1251,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1274,22 +1274,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1297,22 +1297,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1320,22 +1320,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1343,22 +1343,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1366,22 +1366,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1389,22 +1389,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1412,22 +1412,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1435,22 +1435,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1458,22 +1458,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1481,22 +1481,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1504,22 +1504,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1527,22 +1527,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1550,22 +1550,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1573,22 +1573,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1596,22 +1596,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1619,22 +1619,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1642,22 +1642,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1665,22 +1665,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1688,22 +1688,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1711,22 +1711,22 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1734,22 +1734,22 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1757,22 +1757,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1780,22 +1780,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1803,22 +1803,22 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1826,22 +1826,22 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
